--- a/biology/Histoire de la zoologie et de la botanique/Karl_Gottfried_Erdmann/Karl_Gottfried_Erdmann.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Karl_Gottfried_Erdmann/Karl_Gottfried_Erdmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Gottfried Erdmann ou Karl Gottfried Erdmann, né le 31 mars 1774 à Wittemberg et mort le 13 janvier 1835 à Dresde, est un médecin et botaniste allemand.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carl Gottfried Erdmann naît le 31 mars 1774 à Wittenberg et fait ses études médicales dans la même ville. Reçu docteur en 1798, il est médecin pensionné de la ville de Dresde[1],[2],[3].
-Il est le père d'Otto Linné Erdmann[3],[4].
-Il meurt le 13 janvier 1835 à Dresde[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carl Gottfried Erdmann naît le 31 mars 1774 à Wittenberg et fait ses études médicales dans la même ville. Reçu docteur en 1798, il est médecin pensionné de la ville de Dresde.
+Il est le père d'Otto Linné Erdmann,.
+Il meurt le 13 janvier 1835 à Dresde.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Il est connu pour ses travaux sur la flore (spermatophytes)[5] de Saxe, et pour avoir introduit la vaccine d'Edward Jenner à Dresde en 1801[3],[4].
-Ses principales publications sont[2],[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Il est connu pour ses travaux sur la flore (spermatophytes) de Saxe, et pour avoir introduit la vaccine d'Edward Jenner à Dresde en 1801,.
+Ses principales publications sont, :
 Sammlung und beschreibung der giftpflanzen die in Sachsen wildwachsen, 1797 ;
 Gewächse der Obersächsischen Flora, 1800 ;
 Erste Kuhpocken Inoculationem in Dresden, 1801 ;
